--- a/downloads/Inspection Data Import Template.xlsx
+++ b/downloads/Inspection Data Import Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\verify-cert-inspection\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71F1990-A971-4E34-8248-863078A2B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F34BCB-C320-46E6-8F59-EDEBB81DB917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="-30" windowWidth="22545" windowHeight="14835" tabRatio="432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>certificate_number</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>inspection_internal_notes</t>
+  </si>
+  <si>
+    <t>inspector</t>
   </si>
 </sst>
 </file>
@@ -420,70 +423,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
